--- a/Task 1 Training Data.xlsx
+++ b/Task 1 Training Data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\Documents\College Classes\F23\Intro to AI\Project 3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D2D850-EF5F-48AD-8789-25E638B598D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,8 +22,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,21 +60,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -118,7 +104,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -152,7 +138,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -187,10 +172,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -363,21 +347,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:OJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:400" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:400">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:400" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:400">
       <c r="A2">
         <v>0</v>
       </c>
@@ -388,7 +370,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -409,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -421,7 +403,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -430,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -448,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -469,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -481,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -490,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -508,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -529,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -541,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2">
         <v>0</v>
@@ -550,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="BF2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG2">
         <v>0</v>
@@ -568,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BM2">
         <v>0</v>
@@ -589,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -601,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX2">
         <v>0</v>
@@ -610,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="BZ2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -628,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="CF2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CG2">
         <v>0</v>
@@ -649,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="CM2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CN2">
         <v>0</v>
@@ -661,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR2">
         <v>0</v>
@@ -670,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="CT2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CU2">
         <v>0</v>
@@ -688,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="CZ2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DA2">
         <v>0</v>
@@ -709,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="DG2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DH2">
         <v>0</v>
@@ -721,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="DK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL2">
         <v>0</v>
@@ -730,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="DN2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DO2">
         <v>0</v>
@@ -748,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="DT2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DU2">
         <v>0</v>
@@ -769,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="EA2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -781,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="EE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF2">
         <v>0</v>
@@ -790,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="EH2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EI2">
         <v>0</v>
@@ -808,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="EN2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EO2">
         <v>0</v>
@@ -829,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="EU2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EV2">
         <v>0</v>
@@ -841,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="EY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
         <v>0</v>
@@ -850,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="FB2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FC2">
         <v>0</v>
@@ -868,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="FH2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FI2">
         <v>0</v>
@@ -889,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="FO2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FP2">
         <v>0</v>
@@ -901,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="FS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT2">
         <v>0</v>
@@ -910,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="FV2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FW2">
         <v>0</v>
@@ -928,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="GB2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GC2">
         <v>0</v>
@@ -949,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="GI2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GJ2">
         <v>0</v>
@@ -961,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="GM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GN2">
         <v>0</v>
@@ -970,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="GP2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
         <v>0</v>
@@ -988,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="GV2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GW2">
         <v>0</v>
@@ -1009,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="HC2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="HD2">
         <v>0</v>
@@ -1021,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="HG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH2">
         <v>0</v>
@@ -1030,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="HJ2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HK2">
         <v>0</v>
@@ -1048,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="HP2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HQ2">
         <v>0</v>
@@ -1069,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="HW2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="HX2">
         <v>0</v>
@@ -1081,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="IA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB2">
         <v>0</v>
@@ -1090,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="ID2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="IE2">
         <v>0</v>
@@ -1108,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="IJ2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IK2">
         <v>0</v>
@@ -1129,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="IQ2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="IR2">
         <v>0</v>
@@ -1141,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="IU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV2">
         <v>0</v>
@@ -1150,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="IX2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="IY2">
         <v>0</v>
@@ -1159,184 +1141,184 @@
         <v>0</v>
       </c>
       <c r="JA2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JB2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JC2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JD2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JE2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JF2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JG2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JH2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JI2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JJ2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JK2">
         <v>4</v>
       </c>
       <c r="JL2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JM2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JN2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JO2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="JP2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JQ2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JR2">
         <v>2</v>
       </c>
       <c r="JS2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JT2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JU2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="JV2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="JW2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="JX2">
         <v>3</v>
       </c>
       <c r="JY2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="JZ2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KA2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KB2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KC2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KD2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KE2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KF2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KG2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KH2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KK2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KL2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="KM2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KN2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KY2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="KZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LC2">
         <v>1</v>
       </c>
       <c r="LD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LI2">
         <v>0</v>
@@ -1348,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="LL2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="LM2">
         <v>0</v>
@@ -1369,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="LS2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="LT2">
         <v>0</v>
@@ -1381,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="LW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX2">
         <v>0</v>
@@ -1390,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="LZ2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MA2">
         <v>0</v>
@@ -1408,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="MF2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="MG2">
         <v>0</v>
@@ -1429,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="MM2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="MN2">
         <v>0</v>
@@ -1441,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="MQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MR2">
         <v>0</v>
@@ -1450,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="MT2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MU2">
         <v>0</v>
@@ -1468,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="MZ2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="NA2">
         <v>0</v>
@@ -1489,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="NG2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="NH2">
         <v>0</v>
@@ -1501,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="NK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NL2">
         <v>0</v>
@@ -1510,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="NN2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NO2">
         <v>0</v>
@@ -1528,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="NT2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="NU2">
         <v>0</v>
@@ -1549,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="OA2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OB2">
         <v>0</v>
@@ -1561,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="OE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OF2">
         <v>0</v>
@@ -1570,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="OH2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OI2">
         <v>0</v>
@@ -1579,9 +1561,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:400" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:400">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1590,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1605,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1620,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1650,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1665,13 +1647,13 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1680,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1710,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -1725,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3">
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1740,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -1770,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="BL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -1785,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR3">
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -1800,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="BV3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -1830,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="CF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG3">
         <v>0</v>
@@ -1845,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="CK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL3">
         <v>0</v>
       </c>
       <c r="CM3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CN3">
         <v>0</v>
@@ -1860,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ3">
         <v>0</v>
@@ -1890,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="CZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA3">
         <v>0</v>
@@ -1905,13 +1887,13 @@
         <v>0</v>
       </c>
       <c r="DE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF3">
         <v>0</v>
       </c>
       <c r="DG3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DH3">
         <v>0</v>
@@ -1920,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DK3">
         <v>0</v>
@@ -1950,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="DT3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU3">
         <v>0</v>
@@ -1965,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="DY3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
         <v>0</v>
       </c>
       <c r="EA3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EB3">
         <v>0</v>
@@ -1980,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="ED3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2010,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="EN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO3">
         <v>0</v>
@@ -2025,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="ES3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET3">
         <v>0</v>
       </c>
       <c r="EU3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EV3">
         <v>0</v>
@@ -2040,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="EX3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EY3">
         <v>0</v>
@@ -2070,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="FH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI3">
         <v>0</v>
@@ -2085,13 +2067,13 @@
         <v>0</v>
       </c>
       <c r="FM3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN3">
         <v>0</v>
       </c>
       <c r="FO3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="FP3">
         <v>0</v>
@@ -2100,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="FR3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FS3">
         <v>0</v>
@@ -2121,124 +2103,124 @@
         <v>0</v>
       </c>
       <c r="FY3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FZ3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GA3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GB3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GC3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GD3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GE3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GF3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GG3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GH3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GI3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="GJ3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GK3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GL3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GM3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GN3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GO3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GP3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GQ3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GR3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GS3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GT3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GU3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GX3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GY3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GZ3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HA3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HC3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HD3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HE3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HF3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="HG3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HH3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HI3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HJ3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HK3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HL3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HM3">
         <v>0</v>
@@ -2250,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="HP3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ3">
         <v>0</v>
@@ -2265,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="HU3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV3">
         <v>0</v>
       </c>
       <c r="HW3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="HX3">
         <v>0</v>
@@ -2280,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="HZ3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="IA3">
         <v>0</v>
@@ -2310,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="IJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK3">
         <v>0</v>
@@ -2325,13 +2307,13 @@
         <v>0</v>
       </c>
       <c r="IO3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP3">
         <v>0</v>
       </c>
       <c r="IQ3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="IR3">
         <v>0</v>
@@ -2340,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="IT3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="IU3">
         <v>0</v>
@@ -2370,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="JD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JE3">
         <v>0</v>
@@ -2385,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="JI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ3">
         <v>0</v>
       </c>
       <c r="JK3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="JL3">
         <v>0</v>
@@ -2400,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="JN3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="JO3">
         <v>0</v>
@@ -2430,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="JX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY3">
         <v>0</v>
@@ -2445,13 +2427,13 @@
         <v>0</v>
       </c>
       <c r="KC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD3">
         <v>0</v>
       </c>
       <c r="KE3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="KF3">
         <v>0</v>
@@ -2460,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="KH3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="KI3">
         <v>0</v>
@@ -2481,64 +2463,64 @@
         <v>0</v>
       </c>
       <c r="KO3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KP3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KQ3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KR3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="KS3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KT3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KU3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KV3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KW3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KX3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KY3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="KZ3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LA3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LB3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="LC3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LD3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LE3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LF3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LG3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LH3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LI3">
         <v>0</v>
@@ -2550,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="LL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LM3">
         <v>0</v>
@@ -2565,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="LQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LR3">
         <v>0</v>
       </c>
       <c r="LS3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="LT3">
         <v>0</v>
@@ -2580,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="LV3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="LW3">
         <v>0</v>
@@ -2610,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="MF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MG3">
         <v>0</v>
@@ -2625,13 +2607,13 @@
         <v>0</v>
       </c>
       <c r="MK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ML3">
         <v>0</v>
       </c>
       <c r="MM3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="MN3">
         <v>0</v>
@@ -2640,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="MP3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="MQ3">
         <v>0</v>
@@ -2670,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="MZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA3">
         <v>0</v>
@@ -2685,13 +2667,13 @@
         <v>0</v>
       </c>
       <c r="NE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NF3">
         <v>0</v>
       </c>
       <c r="NG3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="NH3">
         <v>0</v>
@@ -2700,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="NJ3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="NK3">
         <v>0</v>
@@ -2721,69 +2703,69 @@
         <v>0</v>
       </c>
       <c r="NQ3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NR3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NS3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NT3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NU3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NV3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NW3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NX3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NY3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="NZ3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OA3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="OB3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OC3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OD3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="OE3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OF3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OG3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OH3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OI3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OJ3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:400" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:400">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2798,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2819,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2858,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -2879,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -2918,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
@@ -2939,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB4">
         <v>0</v>
@@ -2978,10 +2960,10 @@
         <v>0</v>
       </c>
       <c r="BN4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -2999,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="BU4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BV4">
         <v>0</v>
@@ -3038,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="CH4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CI4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
         <v>0</v>
@@ -3059,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="CO4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CP4">
         <v>0</v>
@@ -3098,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="DB4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DC4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DD4">
         <v>0</v>
@@ -3119,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="DI4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DJ4">
         <v>0</v>
@@ -3143,64 +3125,64 @@
         <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DR4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DS4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DT4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DU4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DV4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DW4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DX4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DY4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DZ4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EA4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EB4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EC4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="ED4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EE4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EG4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EH4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EI4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EJ4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EK4">
         <v>0</v>
@@ -3218,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="EP4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EQ4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="ER4">
         <v>0</v>
@@ -3239,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="EW4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EX4">
         <v>0</v>
@@ -3278,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FK4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="FL4">
         <v>0</v>
@@ -3299,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="FQ4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="FR4">
         <v>0</v>
@@ -3338,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="GD4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GE4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="GF4">
         <v>0</v>
@@ -3359,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="GK4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="GL4">
         <v>0</v>
@@ -3383,64 +3365,64 @@
         <v>0</v>
       </c>
       <c r="GS4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GT4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GU4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GV4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GW4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GX4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GY4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GZ4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HA4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HB4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HC4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HD4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HE4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="HF4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HG4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HH4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HI4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HJ4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HK4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HL4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HM4">
         <v>0</v>
@@ -3458,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="HR4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HS4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="HT4">
         <v>0</v>
@@ -3479,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="HY4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="HZ4">
         <v>0</v>
@@ -3503,64 +3485,64 @@
         <v>0</v>
       </c>
       <c r="IG4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="IM4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA4">
         <v>0</v>
@@ -3578,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="JF4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JG4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="JH4">
         <v>0</v>
@@ -3599,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="JM4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JN4">
         <v>0</v>
@@ -3638,10 +3620,10 @@
         <v>0</v>
       </c>
       <c r="JZ4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="KA4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="KB4">
         <v>0</v>
@@ -3659,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="KG4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="KH4">
         <v>0</v>
@@ -3698,10 +3680,10 @@
         <v>0</v>
       </c>
       <c r="KT4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="KU4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="KV4">
         <v>0</v>
@@ -3719,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="LA4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="LB4">
         <v>0</v>
@@ -3758,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="LN4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="LO4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="LP4">
         <v>0</v>
@@ -3779,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="LU4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="LV4">
         <v>0</v>
@@ -3818,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="MH4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="MI4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="MJ4">
         <v>0</v>
@@ -3839,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="MO4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="MP4">
         <v>0</v>
@@ -3863,64 +3845,64 @@
         <v>0</v>
       </c>
       <c r="MW4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NB4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="NC4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="ND4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NI4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="NJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NQ4">
         <v>0</v>
@@ -3938,10 +3920,10 @@
         <v>0</v>
       </c>
       <c r="NV4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="NW4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="NX4">
         <v>0</v>
@@ -3959,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="OC4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="OD4">
         <v>0</v>
@@ -3983,123 +3965,123 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:400" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:400">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>3</v>
@@ -4126,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="AV5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW5">
         <v>0</v>
@@ -4147,10 +4129,10 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -4162,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI5">
         <v>0</v>
@@ -4186,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
         <v>0</v>
@@ -4207,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="BW5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BX5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BY5">
         <v>0</v>
@@ -4222,67 +4204,67 @@
         <v>0</v>
       </c>
       <c r="CB5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CC5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CD5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CH5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CI5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CJ5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CK5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CL5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CM5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CN5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CO5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CP5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CQ5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CR5">
         <v>2</v>
       </c>
       <c r="CS5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CT5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CV5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CW5">
         <v>0</v>
@@ -4306,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="DD5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DE5">
         <v>0</v>
@@ -4327,10 +4309,10 @@
         <v>0</v>
       </c>
       <c r="DK5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DL5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DM5">
         <v>0</v>
@@ -4342,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="DP5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DQ5">
         <v>0</v>
@@ -4366,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="DX5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DY5">
         <v>0</v>
@@ -4387,10 +4369,10 @@
         <v>0</v>
       </c>
       <c r="EE5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EF5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EG5">
         <v>0</v>
@@ -4402,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EK5">
         <v>0</v>
@@ -4426,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="ER5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="ES5">
         <v>0</v>
@@ -4447,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="EY5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EZ5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FA5">
         <v>0</v>
@@ -4462,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="FD5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FE5">
         <v>0</v>
@@ -4486,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="FL5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="FM5">
         <v>0</v>
@@ -4507,10 +4489,10 @@
         <v>0</v>
       </c>
       <c r="FS5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FT5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FU5">
         <v>0</v>
@@ -4522,67 +4504,67 @@
         <v>0</v>
       </c>
       <c r="FX5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FY5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="GN5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GS5">
         <v>0</v>
@@ -4606,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="GZ5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="HA5">
         <v>0</v>
@@ -4627,10 +4609,10 @@
         <v>0</v>
       </c>
       <c r="HG5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="HH5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HI5">
         <v>0</v>
@@ -4642,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="HL5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HM5">
         <v>0</v>
@@ -4666,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="HT5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="HU5">
         <v>0</v>
@@ -4687,10 +4669,10 @@
         <v>0</v>
       </c>
       <c r="IA5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="IB5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="IC5">
         <v>0</v>
@@ -4702,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="IF5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IG5">
         <v>0</v>
@@ -4726,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="IN5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="IO5">
         <v>0</v>
@@ -4747,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="IU5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="IV5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="IW5">
         <v>0</v>
@@ -4762,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="IZ5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="JA5">
         <v>0</v>
@@ -4786,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="JH5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="JI5">
         <v>0</v>
@@ -4807,10 +4789,10 @@
         <v>0</v>
       </c>
       <c r="JO5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="JP5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JQ5">
         <v>0</v>
@@ -4822,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="JT5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="JU5">
         <v>0</v>
@@ -4846,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="KB5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="KC5">
         <v>0</v>
@@ -4867,10 +4849,10 @@
         <v>0</v>
       </c>
       <c r="KI5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="KJ5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KK5">
         <v>0</v>
@@ -4882,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="KN5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KO5">
         <v>0</v>
@@ -4906,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="KV5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="KW5">
         <v>0</v>
@@ -4927,10 +4909,10 @@
         <v>0</v>
       </c>
       <c r="LC5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="LD5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LE5">
         <v>0</v>
@@ -4942,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="LH5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LI5">
         <v>0</v>
@@ -4966,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="LP5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="LQ5">
         <v>0</v>
@@ -4987,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="LW5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="LX5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LY5">
         <v>0</v>
@@ -5002,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="MB5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="MC5">
         <v>0</v>
@@ -5026,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="MJ5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="MK5">
         <v>0</v>
@@ -5047,10 +5029,10 @@
         <v>0</v>
       </c>
       <c r="MQ5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="MR5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MS5">
         <v>0</v>
@@ -5062,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="MV5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="MW5">
         <v>0</v>
@@ -5086,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="ND5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="NE5">
         <v>0</v>
@@ -5107,10 +5089,10 @@
         <v>0</v>
       </c>
       <c r="NK5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="NL5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NM5">
         <v>0</v>
@@ -5122,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="NP5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="NQ5">
         <v>0</v>
@@ -5146,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="NX5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="NY5">
         <v>0</v>
@@ -5167,10 +5149,10 @@
         <v>0</v>
       </c>
       <c r="OE5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OF5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OG5">
         <v>0</v>
@@ -5182,69 +5164,69 @@
         <v>0</v>
       </c>
       <c r="OJ5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:400" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:400">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -5253,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -5271,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -5280,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -5313,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -5331,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -5340,10 +5322,10 @@
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -5367,64 +5349,64 @@
         <v>0</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BK6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BL6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BQ6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BX6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BY6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BZ6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CB6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC6">
         <v>0</v>
@@ -5433,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="CE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF6">
         <v>0</v>
@@ -5451,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="CK6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CL6">
         <v>0</v>
@@ -5460,10 +5442,10 @@
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CO6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CP6">
         <v>0</v>
@@ -5493,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="CY6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
         <v>0</v>
@@ -5511,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="DE6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DF6">
         <v>0</v>
@@ -5520,10 +5502,10 @@
         <v>0</v>
       </c>
       <c r="DH6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DI6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DJ6">
         <v>0</v>
@@ -5553,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="DS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT6">
         <v>0</v>
@@ -5571,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="DY6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
         <v>0</v>
@@ -5580,10 +5562,10 @@
         <v>0</v>
       </c>
       <c r="EB6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EC6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ED6">
         <v>0</v>
@@ -5613,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="EM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN6">
         <v>0</v>
@@ -5631,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="ES6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="ET6">
         <v>0</v>
@@ -5640,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="EV6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EW6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EX6">
         <v>0</v>
@@ -5673,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="FG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FH6">
         <v>0</v>
@@ -5691,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="FM6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FN6">
         <v>0</v>
@@ -5700,10 +5682,10 @@
         <v>0</v>
       </c>
       <c r="FP6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FQ6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FR6">
         <v>0</v>
@@ -5733,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="GA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB6">
         <v>0</v>
@@ -5751,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="GG6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GH6">
         <v>0</v>
@@ -5760,10 +5742,10 @@
         <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GK6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GL6">
         <v>0</v>
@@ -5793,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GV6">
         <v>0</v>
@@ -5811,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="HA6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HB6">
         <v>0</v>
@@ -5820,10 +5802,10 @@
         <v>0</v>
       </c>
       <c r="HD6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HE6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HF6">
         <v>0</v>
@@ -5853,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HP6">
         <v>0</v>
@@ -5871,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="HU6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HV6">
         <v>0</v>
@@ -5880,10 +5862,10 @@
         <v>0</v>
       </c>
       <c r="HX6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HY6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HZ6">
         <v>0</v>
@@ -5907,64 +5889,64 @@
         <v>0</v>
       </c>
       <c r="IG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II6">
         <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IS6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="IT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA6">
         <v>0</v>
@@ -5973,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="JC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD6">
         <v>0</v>
@@ -5991,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="JI6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -6000,10 +5982,10 @@
         <v>0</v>
       </c>
       <c r="JL6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="JM6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JN6">
         <v>0</v>
@@ -6033,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="JW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX6">
         <v>0</v>
@@ -6051,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="KC6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="KD6">
         <v>0</v>
@@ -6060,10 +6042,10 @@
         <v>0</v>
       </c>
       <c r="KF6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KG6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="KH6">
         <v>0</v>
@@ -6093,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="KQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR6">
         <v>0</v>
@@ -6111,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="KW6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="KX6">
         <v>0</v>
@@ -6120,10 +6102,10 @@
         <v>0</v>
       </c>
       <c r="KZ6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LA6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="LB6">
         <v>0</v>
@@ -6153,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="LK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LL6">
         <v>0</v>
@@ -6171,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="LQ6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="LR6">
         <v>0</v>
@@ -6180,10 +6162,10 @@
         <v>0</v>
       </c>
       <c r="LT6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LU6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="LV6">
         <v>0</v>
@@ -6213,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="ME6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MF6">
         <v>0</v>
@@ -6231,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="MK6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="ML6">
         <v>0</v>
@@ -6240,10 +6222,10 @@
         <v>0</v>
       </c>
       <c r="MN6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="MO6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="MP6">
         <v>0</v>
@@ -6273,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="MY6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ6">
         <v>0</v>
@@ -6291,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="NE6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="NF6">
         <v>0</v>
@@ -6300,10 +6282,10 @@
         <v>0</v>
       </c>
       <c r="NH6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="NI6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="NJ6">
         <v>0</v>
@@ -6327,64 +6309,64 @@
         <v>0</v>
       </c>
       <c r="NQ6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="NR6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="NS6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="NT6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="NU6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="NV6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="NW6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="NX6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="NY6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="NZ6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="OA6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="OB6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="OC6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="OD6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="OE6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="OF6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="OG6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="OH6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="OI6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="OJ6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
